--- a/docs/需求分析文档/需求池.xlsx
+++ b/docs/需求分析文档/需求池.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="169">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,6 +654,72 @@
   <si>
     <t>异常记录
 （页面待设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机定点打卡方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">为了防止学生使用多台手机替跑，设计随机定点打卡方案。要做到：
+1、教师能在教师后台，设置本校可供学生打卡的点，以及打卡方案。
+2、每个学生在每次运动时，系统会给学生随机分配一个打卡方案。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低电量提醒与运动数据保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了解决学生在运动过程中，因为手机设备电量不足而导致本次运动记录失效的问题。在产品设计上：
+1、运动方式和用电量有个关联判断，当用户选择长耗时运动方式，但手机电量小于百分之几十呢？客户端会有提醒，建议选择其他短耗时的运动方式，否则电量用完后，本次运动将被迫结束。
+2、在电量还有x%(这个具体比例要想一下)之前，系统会记录本次运动数据。
+3、系统仍然会对被中断的运动记录数据进行判断，是否达标？是否异常？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【锻炼成果】与【运动详情】和【历史运动概况】打通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【锻炼成果】与【运动详情】和【历史运动概况】打通。产品设计上做到：
+1、在单次运动结束后，可以看到本次运动的【锻炼成果】。也可以通过本次【锻炼成果】页面，进入【历史运动概况】页面。
+2、学生【历史运动概况】页面，可以进入以往已提交运动记录的【锻炼成果】页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【锻炼成果】与【运动详情】的悬浮窗可折叠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【锻炼成果】与【运动详情】的悬浮窗可折叠。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改跑或走的运动方式的运动指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改跑或走的运动方式的运动指标，移除客户端耗时指标的提示。原因在于：
+1、当前跑或走运动方式的的运动指标，最重要的是距离，其次是速度。本意是学校希望需要以一定平均速度，完成一定距离的运动。
+2、蔡主任认为，出现耗时指标，容易诱导学生作弊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对学生超额完成运动指标的运动记录，进行准确的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡主任提出，当学生超额完成某个运动方式的运动指标时，系统会记录当学生完成达标距离的时间，以此判断当时的平均速度是否达标。如果平均速度大于或等于教师后台填写的正常数值，小于异常数值，则学生此次运动结束后，该运动记录仍判定为达标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园排行榜暂时只保留累计达标次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园排行榜暂时只保留累计达标次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +791,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -794,13 +860,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,104 +939,77 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -989,36 +1037,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1347,12 +1365,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M46" sqref="M46:M48"/>
+      <selection pane="bottomLeft" activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1378,7 @@
     <col min="1" max="1" width="8.88671875" style="10"/>
     <col min="2" max="2" width="11.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5546875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" style="24" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="12" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
@@ -1381,7 +1399,7 @@
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -1413,19 +1431,19 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="40">
         <v>42885</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1438,46 +1456,46 @@
       <c r="I2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="37">
         <v>3</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="32"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="33"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H3"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="32"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="33"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H4"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="32"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="37"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
@@ -1489,7 +1507,7 @@
       <c r="C5" s="20">
         <v>42885</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="25" t="s">
         <v>125</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -1515,19 +1533,19 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="32">
         <v>3</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="40">
         <v>42898</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1541,30 +1559,30 @@
       <c r="J6" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="37">
         <v>3</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="37" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="33"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="32"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
@@ -1576,7 +1594,7 @@
       <c r="C8" s="20">
         <v>42898</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="25" t="s">
         <v>142</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1605,16 +1623,16 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="5" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="32">
         <v>5</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="40">
         <v>42899</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="39" t="s">
         <v>110</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1629,45 +1647,45 @@
       <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="37">
         <v>3</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="L9" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="M9" s="32"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="39"/>
       <c r="F10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="32"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" ht="109.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="32">
         <v>6</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="40">
         <v>42899</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1679,63 +1697,63 @@
       <c r="I11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="37">
         <v>2</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="M11" s="32"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="33"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="32"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="32"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:13" s="5" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="32">
         <v>7</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="40">
         <v>42899</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1747,65 +1765,65 @@
       <c r="I14" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="J14" s="31" t="s">
+      <c r="J14" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="37">
         <v>3</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="L14" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="M14" s="32"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="33"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="32"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="33"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="32"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="37"/>
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
+      <c r="A17" s="32">
         <v>8</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="40">
         <v>42905</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -1818,42 +1836,42 @@
       <c r="I17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="37">
         <v>3</v>
       </c>
-      <c r="L17" s="33" t="s">
+      <c r="L17" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="37" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="33"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="32"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="37"/>
     </row>
     <row r="19" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="33"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="38"/>
       <c r="F19" s="5" t="s">
         <v>41</v>
       </c>
@@ -1862,25 +1880,25 @@
       <c r="I19" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="32"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="37"/>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+      <c r="A20" s="32">
         <v>9</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="40">
         <v>42905</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1889,40 +1907,40 @@
       <c r="G20" s="12"/>
       <c r="H20"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K20" s="37">
         <v>3</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="M20" s="32"/>
+      <c r="M20" s="37"/>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="33"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="32"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="37"/>
     </row>
     <row r="22" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="33"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="5" t="s">
         <v>41</v>
       </c>
@@ -1931,25 +1949,25 @@
       <c r="I22" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="32"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="37"/>
     </row>
     <row r="23" spans="1:13" s="5" customFormat="1" ht="109.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="32">
         <v>10</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="40">
         <v>42906</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="38" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -1958,65 +1976,65 @@
       <c r="G23" s="12"/>
       <c r="H23"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="32">
+      <c r="K23" s="37">
         <v>1</v>
       </c>
-      <c r="L23" s="33" t="s">
+      <c r="L23" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="32"/>
+      <c r="M23" s="37"/>
     </row>
     <row r="24" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="33"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="32"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="37"/>
     </row>
     <row r="25" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="33"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="32"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="37"/>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="32">
         <v>11</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="40">
         <v>42906</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -2028,61 +2046,61 @@
       <c r="I26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="37">
         <v>2</v>
       </c>
-      <c r="L26" s="33" t="s">
+      <c r="L26" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="32" t="s">
+      <c r="M26" s="37" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="33"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="32"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="37"/>
     </row>
     <row r="28" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="33"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="31"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="32"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="37"/>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
+      <c r="A29" s="32">
         <v>12</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="40">
         <v>42906</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D29" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -2094,113 +2112,113 @@
       <c r="I29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="K29" s="32">
+      <c r="K29" s="37">
         <v>3</v>
       </c>
-      <c r="L29" s="33" t="s">
+      <c r="L29" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="32"/>
+      <c r="M29" s="37"/>
     </row>
     <row r="30" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="33"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="32"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="37"/>
     </row>
     <row r="31" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="33"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="32"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="37"/>
     </row>
     <row r="32" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
+      <c r="A32" s="32">
         <v>13</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="40">
         <v>42908</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="33" t="s">
+      <c r="F32" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="38" t="s">
         <v>26</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="K32" s="32">
+      <c r="K32" s="37">
         <v>2</v>
       </c>
-      <c r="L32" s="33" t="s">
+      <c r="L32" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="32"/>
+      <c r="M32" s="37"/>
     </row>
     <row r="33" spans="1:13" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
       <c r="I33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="32"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="37"/>
     </row>
     <row r="34" spans="1:13" s="5" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+      <c r="A34" s="32">
         <v>14</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="40">
         <v>42908</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -2212,165 +2230,165 @@
       <c r="I34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="31" t="s">
+      <c r="J34" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="K34" s="32">
+      <c r="K34" s="37">
         <v>1</v>
       </c>
-      <c r="L34" s="33" t="s">
+      <c r="L34" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="32" t="s">
+      <c r="M34" s="37" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="5" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="33"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J35" s="31"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="32"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="37"/>
     </row>
     <row r="36" spans="1:13" s="5" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
+      <c r="A36" s="32">
         <v>15</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="40">
         <v>42908</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>78</v>
       </c>
       <c r="I36"/>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="K36" s="32">
+      <c r="K36" s="37">
         <v>3</v>
       </c>
-      <c r="L36" s="33" t="s">
+      <c r="L36" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="32"/>
+      <c r="M36" s="37"/>
     </row>
     <row r="37" spans="1:13" s="5" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="33"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="J37" s="31"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="32"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="37"/>
     </row>
     <row r="38" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="33"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J38" s="31"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="32"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="37"/>
     </row>
     <row r="39" spans="1:13" s="5" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
+      <c r="A39" s="32">
         <v>16</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="40">
         <v>42908</v>
       </c>
-      <c r="D39" s="34" t="s">
+      <c r="D39" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="32" t="s">
+      <c r="I39" s="37" t="s">
         <v>82</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="K39" s="32">
+      <c r="K39" s="37">
         <v>2</v>
       </c>
-      <c r="L39" s="33" t="s">
+      <c r="L39" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="M39" s="32" t="s">
+      <c r="M39" s="37" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="33"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="32"/>
+      <c r="I40" s="37"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="32"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="37"/>
     </row>
     <row r="41" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="33"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="38"/>
       <c r="F41" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="32"/>
+      <c r="I41" s="37"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="32"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="37"/>
     </row>
     <row r="42" spans="1:13" s="5" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
@@ -2382,7 +2400,7 @@
       <c r="C42" s="4">
         <v>42909</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="25" t="s">
         <v>65</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -2409,19 +2427,19 @@
       <c r="M42" s="6"/>
     </row>
     <row r="43" spans="1:13" s="5" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27">
+      <c r="A43" s="32">
         <v>18</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C43" s="35">
         <v>42909</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -2434,40 +2452,40 @@
       <c r="I43" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J43" s="31" t="s">
+      <c r="J43" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="K43" s="32">
+      <c r="K43" s="37">
         <v>2</v>
       </c>
-      <c r="L43" s="33" t="s">
+      <c r="L43" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="32"/>
+      <c r="M43" s="37"/>
     </row>
     <row r="44" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="33"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="32"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="37"/>
     </row>
     <row r="45" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="33"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="5" t="s">
         <v>15</v>
       </c>
@@ -2476,25 +2494,25 @@
       <c r="I45" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J45" s="31"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="32"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="37"/>
     </row>
     <row r="46" spans="1:13" s="5" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
+      <c r="A46" s="32">
         <v>19</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="35">
         <v>42909</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -2505,23 +2523,23 @@
       <c r="I46" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="J46" s="31" t="s">
+      <c r="J46" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="K46" s="32">
+      <c r="K46" s="37">
         <v>1</v>
       </c>
-      <c r="L46" s="33" t="s">
+      <c r="L46" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="M46" s="32"/>
+      <c r="M46" s="37"/>
     </row>
     <row r="47" spans="1:13" s="5" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="33"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="38"/>
       <c r="F47" s="5" t="s">
         <v>15</v>
       </c>
@@ -2530,17 +2548,17 @@
       <c r="I47" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J47" s="31"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="32"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="37"/>
     </row>
     <row r="48" spans="1:13" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="33"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="5" t="s">
         <v>47</v>
       </c>
@@ -2549,25 +2567,25 @@
       <c r="I48" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="J48" s="31"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="32"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="37"/>
     </row>
     <row r="49" spans="1:13" s="5" customFormat="1" ht="124.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27">
+      <c r="A49" s="32">
         <v>20</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="25">
+      <c r="C49" s="35">
         <v>42909</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="5" t="s">
@@ -2578,23 +2596,23 @@
       <c r="I49" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="J49" s="31" t="s">
+      <c r="J49" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K49" s="32">
+      <c r="K49" s="37">
         <v>2</v>
       </c>
-      <c r="L49" s="33" t="s">
+      <c r="L49" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="M49" s="32"/>
+      <c r="M49" s="37"/>
     </row>
     <row r="50" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="33"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="5" t="s">
         <v>41</v>
       </c>
@@ -2603,27 +2621,27 @@
       <c r="I50" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="J50" s="31"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="32"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="37"/>
     </row>
     <row r="51" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="33"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="38"/>
       <c r="F51" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="32"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="37"/>
     </row>
     <row r="52" spans="1:13" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
@@ -2635,7 +2653,7 @@
       <c r="C52" s="4">
         <v>42912</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E52" t="s">
@@ -2670,7 +2688,7 @@
       <c r="C53" s="4">
         <v>42912</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E53" t="s">
@@ -2699,19 +2717,19 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
+      <c r="A54" s="32">
         <v>23</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="25">
+      <c r="C54" s="35">
         <v>42912</v>
       </c>
-      <c r="D54" s="30" t="s">
+      <c r="D54" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="26" t="s">
+      <c r="E54" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -2726,23 +2744,23 @@
       <c r="I54" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="29" t="s">
+      <c r="J54" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="K54" s="29">
+      <c r="K54" s="26">
         <v>2</v>
       </c>
-      <c r="L54" s="26" t="s">
+      <c r="L54" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M54" s="29"/>
+      <c r="M54" s="26"/>
     </row>
     <row r="55" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="26"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="27"/>
       <c r="F55" s="12" t="s">
         <v>47</v>
       </c>
@@ -2753,25 +2771,25 @@
       <c r="I55" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="29"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="26"/>
     </row>
     <row r="56" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="26"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="27"/>
       <c r="F56" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H56" s="12"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="29"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="26"/>
     </row>
     <row r="57" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
@@ -2783,7 +2801,7 @@
       <c r="C57" s="4">
         <v>42912</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="24" t="s">
         <v>28</v>
       </c>
       <c r="E57" t="s">
@@ -2818,7 +2836,7 @@
       <c r="C58" s="4">
         <v>42912</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="D58" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E58" t="s">
@@ -2847,19 +2865,19 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="27">
+      <c r="A59" s="32">
         <v>26</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C59" s="35">
         <v>42912</v>
       </c>
-      <c r="D59" s="30" t="s">
+      <c r="D59" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E59" s="27" t="s">
         <v>25</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -2877,20 +2895,20 @@
       <c r="J59" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K59" s="29">
+      <c r="K59" s="26">
         <v>2</v>
       </c>
-      <c r="L59" s="26" t="s">
+      <c r="L59" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M59" s="29"/>
+      <c r="M59" s="26"/>
     </row>
     <row r="60" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="26"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="27"/>
       <c r="F60" s="12" t="s">
         <v>41</v>
       </c>
@@ -2898,24 +2916,24 @@
       <c r="I60" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="K60" s="29"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="29"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="26"/>
     </row>
     <row r="61" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="27">
+      <c r="A61" s="32">
         <v>27</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C61" s="35">
         <v>42912</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E61" s="27" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -2930,23 +2948,23 @@
       <c r="I61" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J61" s="28" t="s">
+      <c r="J61" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="K61" s="29">
+      <c r="K61" s="26">
         <v>2</v>
       </c>
-      <c r="L61" s="26" t="s">
+      <c r="L61" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M61" s="29"/>
+      <c r="M61" s="26"/>
     </row>
     <row r="62" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="26"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="27"/>
       <c r="F62" s="12" t="s">
         <v>41</v>
       </c>
@@ -2954,25 +2972,25 @@
       <c r="I62" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J62" s="28"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="29"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="26"/>
     </row>
     <row r="63" spans="1:13" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="27">
+      <c r="A63" s="32">
         <v>28</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="25">
+      <c r="C63" s="35">
         <v>42912</v>
       </c>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E63" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -2984,37 +3002,37 @@
       <c r="I63" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J63" s="28" t="s">
+      <c r="J63" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="K63" s="29">
+      <c r="K63" s="26">
         <v>1</v>
       </c>
-      <c r="L63" s="26" t="s">
+      <c r="L63" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="M63" s="29"/>
+      <c r="M63" s="26"/>
     </row>
     <row r="64" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="26"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J64" s="28"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="29"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="26"/>
     </row>
     <row r="65" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="26"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="1" t="s">
         <v>15</v>
       </c>
@@ -3024,25 +3042,25 @@
       <c r="I65" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J65" s="28"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="29"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="26"/>
     </row>
     <row r="66" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="27">
+      <c r="A66" s="32">
         <v>29</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="25">
+      <c r="C66" s="35">
         <v>42912</v>
       </c>
-      <c r="D66" s="30" t="s">
+      <c r="D66" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -3054,117 +3072,117 @@
       <c r="I66" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J66" s="28" t="s">
+      <c r="J66" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="K66" s="29">
+      <c r="K66" s="26">
         <v>2</v>
       </c>
-      <c r="L66" s="26" t="s">
+      <c r="L66" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M66" s="29" t="s">
+      <c r="M66" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="26"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="27"/>
       <c r="F67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J67" s="28"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="29"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="27"/>
+      <c r="M67" s="26"/>
     </row>
     <row r="68" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="26"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="27"/>
       <c r="F68" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J68" s="28"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="29"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="26"/>
     </row>
     <row r="69" spans="1:13" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="27">
+      <c r="A69" s="32">
         <v>30</v>
       </c>
-      <c r="B69" s="26" t="s">
+      <c r="B69" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="35">
         <v>42912</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D69" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="26" t="s">
+      <c r="E69" s="27" t="s">
         <v>25</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="26" t="s">
+      <c r="G69" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="26"/>
-      <c r="I69" s="29" t="s">
+      <c r="H69" s="27"/>
+      <c r="I69" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="J69" s="28" t="s">
+      <c r="J69" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K69" s="29">
+      <c r="K69" s="26">
         <v>3</v>
       </c>
-      <c r="L69" s="26" t="s">
+      <c r="L69" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M69" s="28" t="s">
+      <c r="M69" s="34" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="26"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="27"/>
       <c r="F70" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="28"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="34"/>
     </row>
     <row r="71" spans="1:13" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="27">
+      <c r="A71" s="32">
         <v>31</v>
       </c>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="25">
+      <c r="C71" s="35">
         <v>42912</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="26" t="s">
+      <c r="E71" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -3176,39 +3194,39 @@
       <c r="I71" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J71" s="28" t="s">
+      <c r="J71" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K71" s="29">
+      <c r="K71" s="26">
         <v>1</v>
       </c>
-      <c r="L71" s="26" t="s">
+      <c r="L71" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M71" s="28" t="s">
+      <c r="M71" s="34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="26"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="27"/>
       <c r="F72" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J72" s="28"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="28"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="34"/>
     </row>
     <row r="73" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="26"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="27"/>
       <c r="F73" s="1" t="s">
         <v>15</v>
       </c>
@@ -3218,83 +3236,83 @@
       <c r="I73" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J73" s="28"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="28"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="34"/>
     </row>
     <row r="74" spans="1:13" ht="248.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="27">
+      <c r="A74" s="32">
         <v>32</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="25">
+      <c r="C74" s="35">
         <v>42912</v>
       </c>
-      <c r="D74" s="30" t="s">
+      <c r="D74" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E74" s="26" t="s">
+      <c r="E74" s="27" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="G74" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="H74" s="26"/>
-      <c r="I74" s="29" t="s">
+      <c r="H74" s="27"/>
+      <c r="I74" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="J74" s="28" t="s">
+      <c r="J74" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="K74" s="29">
+      <c r="K74" s="26">
         <v>1</v>
       </c>
-      <c r="L74" s="26" t="s">
+      <c r="L74" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M74" s="28" t="s">
+      <c r="M74" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="26"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="27"/>
       <c r="F75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="26"/>
-      <c r="M75" s="28"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="34"/>
     </row>
     <row r="76" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="26"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="27"/>
       <c r="F76" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="29"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="28"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="34"/>
     </row>
     <row r="77" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
@@ -3306,8 +3324,11 @@
       <c r="C77" s="4">
         <v>42912</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="24" t="s">
         <v>62</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>15</v>
@@ -3341,8 +3362,11 @@
       <c r="C78" s="4">
         <v>42914</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="22" t="s">
         <v>128</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>47</v>
@@ -3367,8 +3391,11 @@
       <c r="C79" s="14">
         <v>42914</v>
       </c>
-      <c r="D79" s="24" t="s">
+      <c r="D79" s="22" t="s">
         <v>131</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>47</v>
@@ -3396,8 +3423,11 @@
       <c r="C80" s="14">
         <v>42914</v>
       </c>
-      <c r="D80" s="24" t="s">
+      <c r="D80" s="22" t="s">
         <v>132</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>47</v>
@@ -3416,17 +3446,20 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="27">
+      <c r="A81" s="32">
         <v>37</v>
       </c>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="40">
+      <c r="C81" s="31">
         <v>42914</v>
       </c>
-      <c r="D81" s="37" t="s">
+      <c r="D81" s="28" t="s">
         <v>135</v>
+      </c>
+      <c r="E81" s="42" t="s">
+        <v>14</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>47</v>
@@ -3434,107 +3467,114 @@
       <c r="I81" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J81" s="29" t="s">
+      <c r="J81" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="K81" s="29">
+      <c r="K81" s="26">
         <v>2</v>
       </c>
-      <c r="L81" s="26" t="s">
+      <c r="L81" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M81" s="29"/>
+      <c r="M81" s="26"/>
     </row>
     <row r="82" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="38"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="42"/>
       <c r="F82" s="18" t="s">
         <v>41</v>
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
       <c r="I82" s="18"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="26"/>
-      <c r="M82" s="29"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="26"/>
     </row>
     <row r="83" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="39"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="42"/>
       <c r="F83" s="18" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
       <c r="I83" s="18"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="26"/>
-      <c r="M83" s="29"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="26"/>
     </row>
     <row r="84" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="41">
+      <c r="A84" s="33">
         <v>38</v>
       </c>
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="31">
         <v>42914</v>
       </c>
-      <c r="D84" s="37" t="s">
+      <c r="D84" s="28" t="s">
         <v>140</v>
+      </c>
+      <c r="E84" s="42" t="s">
+        <v>14</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J84" s="29" t="s">
+      <c r="J84" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="K84" s="29">
+      <c r="K84" s="26">
         <v>3</v>
       </c>
-      <c r="L84" s="26" t="s">
+      <c r="L84" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="M84" s="29"/>
+      <c r="M84" s="26"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="41"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="40"/>
-      <c r="D85" s="38"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="42"/>
       <c r="F85" s="18" t="s">
         <v>41</v>
       </c>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
       <c r="I85" s="19"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="26"/>
-      <c r="M85" s="29"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="26"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="41"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="40"/>
-      <c r="D86" s="39"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="42"/>
       <c r="F86" s="18" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
       <c r="I86" s="19"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="29"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="26"/>
     </row>
     <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
@@ -3546,8 +3586,11 @@
       <c r="C87" s="14">
         <v>42914</v>
       </c>
-      <c r="D87" s="24" t="s">
+      <c r="D87" s="22" t="s">
         <v>137</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>15</v>
@@ -3569,8 +3612,11 @@
       <c r="C88" s="14">
         <v>42914</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D88" s="24" t="s">
         <v>138</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>15</v>
@@ -3601,8 +3647,11 @@
       <c r="C89" s="4">
         <v>42914</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="24" t="s">
         <v>141</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>15</v>
@@ -3614,41 +3663,436 @@
         <v>21</v>
       </c>
     </row>
+    <row r="90" spans="1:13" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="10">
+        <v>42</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="23">
+        <v>42916</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K90" s="2">
+        <v>2</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A91" s="10">
+        <v>43</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="4">
+        <v>42916</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K91" s="2">
+        <v>2</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A92" s="10">
+        <v>44</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="4">
+        <v>42916</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K92" s="2">
+        <v>3</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A93" s="10">
+        <v>45</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="4">
+        <v>42916</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K93" s="2">
+        <v>3</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="109.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10">
+        <v>46</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="4">
+        <v>42919</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K94" s="2">
+        <v>2</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="10">
+        <v>47</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="4">
+        <v>42919</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K95" s="2">
+        <v>2</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>48</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="4">
+        <v>42919</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K96" s="2">
+        <v>3</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="246">
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="K84:K86"/>
-    <mergeCell ref="L84:L86"/>
-    <mergeCell ref="L81:L83"/>
-    <mergeCell ref="M63:M65"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="M84:M86"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="M74:M76"/>
-    <mergeCell ref="K74:K76"/>
-    <mergeCell ref="L74:L76"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="J74:J76"/>
-    <mergeCell ref="I74:I76"/>
-    <mergeCell ref="H74:H76"/>
-    <mergeCell ref="G74:G76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="D74:D76"/>
+  <mergeCells count="248">
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="M29:M31"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="K29:K31"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="K20:K22"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="L11:L13"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="J54:J56"/>
+    <mergeCell ref="M54:M56"/>
+    <mergeCell ref="M49:M51"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="K36:K38"/>
+    <mergeCell ref="L36:L38"/>
+    <mergeCell ref="L54:L56"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J66:J68"/>
+    <mergeCell ref="J63:J65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="K63:K65"/>
+    <mergeCell ref="A63:A65"/>
     <mergeCell ref="D69:D70"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="K69:K70"/>
@@ -3673,195 +4117,41 @@
     <mergeCell ref="M66:M68"/>
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="E66:E68"/>
-    <mergeCell ref="J66:J68"/>
-    <mergeCell ref="J63:J65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="L63:L65"/>
-    <mergeCell ref="K63:K65"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="J54:J56"/>
-    <mergeCell ref="M54:M56"/>
-    <mergeCell ref="M49:M51"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="M36:M38"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="K36:K38"/>
-    <mergeCell ref="L36:L38"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="L11:L13"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="L20:L22"/>
-    <mergeCell ref="K20:K22"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="L54:L56"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="M29:M31"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="M39:M41"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="K29:K31"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="M46:M48"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="K54:K56"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="M74:M76"/>
+    <mergeCell ref="K74:K76"/>
+    <mergeCell ref="L74:L76"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="J74:J76"/>
+    <mergeCell ref="I74:I76"/>
+    <mergeCell ref="H74:H76"/>
+    <mergeCell ref="G74:G76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="K84:K86"/>
+    <mergeCell ref="L84:L86"/>
+    <mergeCell ref="L81:L83"/>
+    <mergeCell ref="M63:M65"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="M84:M86"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M59:M60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
@@ -3874,16 +4164,16 @@
         <cfvo type="percent" val="80"/>
       </iconSet>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="产品设计中">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="产品设计中">
       <formula>NOT(ISERROR(SEARCH("产品设计中",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="暂缓">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="暂缓">
       <formula>NOT(ISERROR(SEARCH("暂缓",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="需求分析中">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="需求分析中">
       <formula>NOT(ISERROR(SEARCH("需求分析中",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="开发中">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="开发中">
       <formula>NOT(ISERROR(SEARCH("开发中",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3894,7 +4184,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K17 K20:K26 K29 K32:K39 K42:K43 K46:K54 K57:K59 K61 K63:K81 K84 K87:K1048576">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E17 E20:E26 E29 E32:E39 E42:E43 E46:E54 E57:E59 E61 E63:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E17 E20:E26 E29 E32:E39 E42:E43 E46:E54 E57:E59 E61 E63:E81 E84 E87:E1048576">
       <formula1>"修复BUG,改进体验,新增需求"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G65:G69 G73:G74 G7:G16 G34:G41 G29:G32 G1 G77:G1048576 G52:G54 G56:G62">

--- a/docs/需求分析文档/需求池.xlsx
+++ b/docs/需求分析文档/需求池.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10428"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10428"/>
   </bookViews>
   <sheets>
     <sheet name="需求列表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求列表!$F$1:$F$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求列表!$F$1:$F$99</definedName>
     <definedName name="Android">#REF!</definedName>
     <definedName name="iOS">#REF!</definedName>
     <definedName name="Web">#REF!</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="178">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,11 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、GPS信号提示放到固定位置展示。
-2、定位提醒，建议放在屏幕中间，并且处理得更醒目一些。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>教师后台的运动记录列表，需要有达标字段、异常提醒字段、班级字段以及个人运动次数序列号，在筛选器上要显示。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,21 +656,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">为了防止学生使用多台手机替跑，设计随机定点打卡方案。要做到：
-1、教师能在教师后台，设置本校可供学生打卡的点，以及打卡方案。
-2、每个学生在每次运动时，系统会给学生随机分配一个打卡方案。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>低电量提醒与运动数据保护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了解决学生在运动过程中，因为手机设备电量不足而导致本次运动记录失效的问题。在产品设计上：
-1、运动方式和用电量有个关联判断，当用户选择长耗时运动方式，但手机电量小于百分之几十呢？客户端会有提醒，建议选择其他短耗时的运动方式，否则电量用完后，本次运动将被迫结束。
-2、在电量还有x%(这个具体比例要想一下)之前，系统会记录本次运动数据。
-3、系统仍然会对被中断的运动记录数据进行判断，是否达标？是否异常？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -720,6 +701,82 @@
   </si>
   <si>
     <t>校园排行榜暂时只保留累计达标次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1、GPS信号提示放到固定位置展示。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2、定位提醒，建议放在屏幕中间，并且处理得更醒目一些。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了解决学生在运动过程中，因为手机设备电量不足而导致本次运动记录失效的问题。在产品设计上：
+1、在运动开始时，客户端会提示学生，当前手机的剩余电量。
+3、系统仍然会对被中断的运动记录数据进行判断，是否达标？是否异常？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在运动过程中，运动数据因为无网络导致无法提交；或者，在结束运动时，运动数据因为无网络无法提交。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在管理后台，新增对运动方式所消耗卡路里的编辑入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置运动指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑运动方式
+（页面待设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑运动方式
+（页面待设计）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在管理后台，新增对运动方式所消耗卡路里的编辑入口，而且该功能只能让系统管理人员来维护。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加在运动过程中，锁屏状态下，绘制运动轨迹的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品设计中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+  </si>
+  <si>
+    <t>为了防止学生使用多台手机替跑，设计随机定点打卡方案。要做到：
+1、教师能在教师后台，设置本校可供学生打卡的点，以及打卡方案。
+2、每个学生在每次运动时，系统会给学生随机分配一个打卡方案。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +787,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,6 +822,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -875,7 +941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,9 +1020,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,6 +1056,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -988,28 +1069,132 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1365,12 +1550,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M96"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="69" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="69" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L95" sqref="L95"/>
+      <selection pane="bottomLeft" activeCell="K74" sqref="K74:K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1431,84 +1617,86 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="40">
+      <c r="B2" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="44">
         <v>42885</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="38" t="s">
+      <c r="D2" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>98</v>
+      <c r="G2" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="H2"/>
       <c r="I2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2" s="37">
+        <v>103</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="K2" s="43">
         <v>3</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="37"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="38"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="G3" s="29"/>
       <c r="H3"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="37"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="38"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="G4" s="29"/>
       <c r="H4"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="37"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="20">
         <v>42885</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -1519,10 +1707,10 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K5" s="6">
         <v>3</v>
@@ -1533,58 +1721,58 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="36">
         <v>3</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="44">
         <v>42898</v>
       </c>
-      <c r="D6" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="38" t="s">
+      <c r="D6" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H6"/>
       <c r="I6" s="12"/>
       <c r="J6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K6" s="37">
+        <v>116</v>
+      </c>
+      <c r="K6" s="43">
         <v>3</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
+      <c r="M6" s="43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="K7" s="43"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="46.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>4</v>
       </c>
@@ -1595,7 +1783,7 @@
         <v>42898</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>14</v>
@@ -1610,30 +1798,30 @@
         <v>27</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K8" s="6">
         <v>2</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36">
         <v>5</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="44">
         <v>42899</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>110</v>
+      <c r="D9" s="45" t="s">
+        <v>109</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -1647,45 +1835,45 @@
       <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="37">
+      <c r="J9" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="43">
         <v>3</v>
       </c>
-      <c r="L9" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="37"/>
-    </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="39"/>
+      <c r="L9" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
       <c r="F10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" s="5" customFormat="1" ht="109.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" spans="1:13" s="5" customFormat="1" ht="109.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36">
         <v>6</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="44">
         <v>42899</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="38" t="s">
+      <c r="D11" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1697,63 +1885,63 @@
       <c r="I11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="37">
+      <c r="J11" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="43">
         <v>2</v>
       </c>
-      <c r="L11" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="M11" s="37"/>
+      <c r="L11" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="43"/>
     </row>
     <row r="12" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="38"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+    </row>
+    <row r="13" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:13" s="5" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+        <v>86</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="43"/>
+    </row>
+    <row r="14" spans="1:13" s="5" customFormat="1" ht="46.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36">
         <v>7</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="44">
         <v>42899</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="38" t="s">
+      <c r="D14" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1763,142 +1951,142 @@
         <v>49</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" s="37">
+        <v>115</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="43">
         <v>3</v>
       </c>
-      <c r="L14" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="37"/>
+      <c r="L14" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="43"/>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="38"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="38"/>
+        <v>144</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="42"/>
       <c r="F16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="37"/>
+        <v>86</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
     </row>
     <row r="17" spans="1:13" s="5" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="36">
         <v>8</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="44">
         <v>42905</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="38" t="s">
+      <c r="D17" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H17"/>
       <c r="I17" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="37">
+        <v>88</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="43">
         <v>3</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
+      <c r="M17" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="38"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+    </row>
+    <row r="19" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19"/>
       <c r="I19" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="37"/>
+        <v>86</v>
+      </c>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="43"/>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="A20" s="36">
         <v>9</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="44">
         <v>42905</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" s="38" t="s">
+      <c r="D20" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1907,67 +2095,67 @@
       <c r="G20" s="12"/>
       <c r="H20"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="37">
+      <c r="J20" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="K20" s="43">
         <v>3</v>
       </c>
-      <c r="L20" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="38"/>
+      <c r="L20" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="43"/>
+    </row>
+    <row r="21" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="38"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="43"/>
+    </row>
+    <row r="22" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="42"/>
       <c r="F22" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22"/>
       <c r="I22" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="41"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="37"/>
-    </row>
-    <row r="23" spans="1:13" s="5" customFormat="1" ht="109.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+        <v>86</v>
+      </c>
+      <c r="J22" s="46"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
+    </row>
+    <row r="23" spans="1:13" s="5" customFormat="1" ht="109.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36">
         <v>10</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="40">
+      <c r="B23" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="44">
         <v>42906</v>
       </c>
-      <c r="D23" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E23" s="38" t="s">
+      <c r="D23" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="42" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="5" t="s">
@@ -1976,249 +2164,249 @@
       <c r="G23" s="12"/>
       <c r="H23"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23" s="37">
+      <c r="J23" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="K23" s="43">
         <v>1</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="37"/>
-    </row>
-    <row r="24" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="38"/>
+      <c r="M23" s="43"/>
+    </row>
+    <row r="24" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="37"/>
-    </row>
-    <row r="25" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="38"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
+    </row>
+    <row r="25" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="37"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="43"/>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+      <c r="A26" s="36">
         <v>11</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="44">
         <v>42906</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="38" t="s">
+      <c r="D26" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="K26" s="37">
+      <c r="J26" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="43">
         <v>2</v>
       </c>
-      <c r="L26" s="38" t="s">
+      <c r="L26" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="38"/>
+      <c r="M26" s="43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="42"/>
       <c r="F27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="41"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="37"/>
-    </row>
-    <row r="28" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="38"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="43"/>
+    </row>
+    <row r="28" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="42"/>
       <c r="F28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="41"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="37"/>
-    </row>
-    <row r="29" spans="1:13" s="5" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="J28" s="46"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="43"/>
+    </row>
+    <row r="29" spans="1:13" s="5" customFormat="1" ht="62.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36">
         <v>12</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="44">
+        <v>42906</v>
+      </c>
+      <c r="D29" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="40">
-        <v>42906</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="38" t="s">
+      <c r="E29" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J29" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="K29" s="37">
+        <v>73</v>
+      </c>
+      <c r="J29" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="K29" s="43">
         <v>3</v>
       </c>
-      <c r="L29" s="38" t="s">
+      <c r="L29" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="37"/>
-    </row>
-    <row r="30" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="38"/>
+      <c r="M29" s="43"/>
+    </row>
+    <row r="30" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="37"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="43"/>
     </row>
     <row r="31" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="38"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="42"/>
       <c r="F31" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="37"/>
-    </row>
-    <row r="32" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="43"/>
+    </row>
+    <row r="32" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="36">
         <v>13</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="40">
+      <c r="C32" s="44">
         <v>42908</v>
       </c>
-      <c r="D32" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="38" t="s">
+      <c r="D32" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="42" t="s">
         <v>26</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J32" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="K32" s="37">
+      <c r="J32" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="43">
         <v>2</v>
       </c>
-      <c r="L32" s="38" t="s">
+      <c r="L32" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="37"/>
-    </row>
-    <row r="33" spans="1:13" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
+      <c r="M32" s="43"/>
+    </row>
+    <row r="33" spans="1:13" s="5" customFormat="1" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
       <c r="I33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="37"/>
-    </row>
-    <row r="34" spans="1:13" s="5" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="43"/>
+    </row>
+    <row r="34" spans="1:13" s="5" customFormat="1" ht="111" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="36">
         <v>14</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="44">
+        <v>42908</v>
+      </c>
+      <c r="D34" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="40">
-        <v>42908</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="5" t="s">
@@ -2230,165 +2418,165 @@
       <c r="I34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34" s="37">
+      <c r="J34" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" s="43">
         <v>1</v>
       </c>
-      <c r="L34" s="38" t="s">
+      <c r="L34" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" s="5" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="38"/>
+      <c r="M34" s="43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="5" customFormat="1" ht="40.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="42"/>
       <c r="F35" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J35" s="41"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="37"/>
-    </row>
-    <row r="36" spans="1:13" s="5" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+        <v>85</v>
+      </c>
+      <c r="J35" s="46"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="43"/>
+    </row>
+    <row r="36" spans="1:13" s="5" customFormat="1" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="36">
         <v>15</v>
       </c>
-      <c r="B36" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="40">
+      <c r="B36" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="44">
         <v>42908</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="38" t="s">
+      <c r="D36" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I36"/>
-      <c r="J36" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="37">
+      <c r="J36" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" s="43">
         <v>3</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="L36" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="37"/>
+      <c r="M36" s="43"/>
     </row>
     <row r="37" spans="1:13" s="5" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="38"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="42"/>
       <c r="F37" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J37" s="41"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="37"/>
-    </row>
-    <row r="38" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="38"/>
+        <v>80</v>
+      </c>
+      <c r="J37" s="46"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="43"/>
+    </row>
+    <row r="38" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="36"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="42"/>
       <c r="F38" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J38" s="41"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="37"/>
+        <v>84</v>
+      </c>
+      <c r="J38" s="46"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="43"/>
     </row>
     <row r="39" spans="1:13" s="5" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
+      <c r="A39" s="36">
         <v>16</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="44">
         <v>42908</v>
       </c>
-      <c r="D39" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="38" t="s">
+      <c r="D39" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="37" t="s">
+      <c r="I39" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="K39" s="43">
+        <v>2</v>
+      </c>
+      <c r="L39" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="K39" s="37">
-        <v>2</v>
-      </c>
-      <c r="L39" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="38"/>
+    </row>
+    <row r="40" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="36"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="42"/>
       <c r="F40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="37"/>
+      <c r="I40" s="43"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="37"/>
-    </row>
-    <row r="41" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="38"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="43"/>
+    </row>
+    <row r="41" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="42"/>
       <c r="F41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I41" s="37"/>
+        <v>77</v>
+      </c>
+      <c r="I41" s="43"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="37"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="43"/>
     </row>
     <row r="42" spans="1:13" s="5" customFormat="1" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
@@ -2401,7 +2589,7 @@
         <v>42909</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>14</v>
@@ -2413,10 +2601,10 @@
         <v>50</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K42" s="6">
         <v>2</v>
@@ -2427,19 +2615,19 @@
       <c r="M42" s="6"/>
     </row>
     <row r="43" spans="1:13" s="5" customFormat="1" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
+      <c r="A43" s="36">
         <v>18</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="40">
         <v>42909</v>
       </c>
-      <c r="D43" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="E43" s="38" t="s">
+      <c r="D43" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="5" t="s">
@@ -2450,69 +2638,69 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J43" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="J43" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="K43" s="37">
+      <c r="K43" s="43">
         <v>2</v>
       </c>
-      <c r="L43" s="38" t="s">
+      <c r="L43" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="37"/>
-    </row>
-    <row r="44" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="38"/>
+      <c r="M43" s="43"/>
+    </row>
+    <row r="44" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="42"/>
       <c r="F44" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="37"/>
-    </row>
-    <row r="45" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="38"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="43"/>
+    </row>
+    <row r="45" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="J45" s="41"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="37"/>
-    </row>
-    <row r="46" spans="1:13" s="5" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32">
+        <v>151</v>
+      </c>
+      <c r="J45" s="46"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="43"/>
+    </row>
+    <row r="46" spans="1:13" s="5" customFormat="1" ht="46.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="36">
         <v>19</v>
       </c>
-      <c r="B46" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="35">
+      <c r="B46" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="40">
         <v>42909</v>
       </c>
-      <c r="D46" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="38" t="s">
+      <c r="D46" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="5" t="s">
@@ -2521,71 +2709,71 @@
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
       <c r="I46" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J46" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="J46" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="K46" s="37">
+      <c r="K46" s="43">
         <v>1</v>
       </c>
-      <c r="L46" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="M46" s="37"/>
-    </row>
-    <row r="47" spans="1:13" s="5" customFormat="1" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="38"/>
+      <c r="L46" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="M46" s="43"/>
+    </row>
+    <row r="47" spans="1:13" s="5" customFormat="1" ht="46.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="42"/>
       <c r="F47" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
       <c r="I47" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J47" s="41"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="37"/>
+        <v>95</v>
+      </c>
+      <c r="J47" s="46"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="43"/>
     </row>
     <row r="48" spans="1:13" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="38"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="42"/>
       <c r="F48" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
       <c r="I48" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J48" s="41"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="37"/>
+        <v>171</v>
+      </c>
+      <c r="J48" s="46"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="43"/>
     </row>
     <row r="49" spans="1:13" s="5" customFormat="1" ht="124.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="32">
+      <c r="A49" s="36">
         <v>20</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="40">
         <v>42909</v>
       </c>
-      <c r="D49" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="38" t="s">
+      <c r="D49" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="42" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="5" t="s">
@@ -2594,56 +2782,56 @@
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
       <c r="I49" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J49" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="K49" s="37">
+        <v>91</v>
+      </c>
+      <c r="J49" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="K49" s="43">
         <v>2</v>
       </c>
-      <c r="L49" s="38" t="s">
+      <c r="L49" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="M49" s="37"/>
-    </row>
-    <row r="50" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="38"/>
+      <c r="M49" s="43"/>
+    </row>
+    <row r="50" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="36"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="42"/>
       <c r="F50" s="5" t="s">
         <v>41</v>
       </c>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
       <c r="I50" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="J50" s="41"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="37"/>
-    </row>
-    <row r="51" spans="1:13" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="38"/>
+        <v>93</v>
+      </c>
+      <c r="J50" s="46"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="43"/>
+    </row>
+    <row r="51" spans="1:13" s="5" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="42"/>
       <c r="F51" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="37"/>
-    </row>
-    <row r="52" spans="1:13" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="46"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="43"/>
+    </row>
+    <row r="52" spans="1:13" ht="85.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>21</v>
       </c>
@@ -2675,10 +2863,10 @@
         <v>3</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>22</v>
       </c>
@@ -2707,7 +2895,7 @@
         <v>20</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K53" s="2">
         <v>3</v>
@@ -2716,20 +2904,20 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32">
+    <row r="54" spans="1:13" ht="27.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="36">
         <v>23</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="40">
         <v>42912</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -2744,54 +2932,54 @@
       <c r="I54" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="26" t="s">
+      <c r="J54" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K54" s="26">
+      <c r="K54" s="30">
         <v>2</v>
       </c>
-      <c r="L54" s="27" t="s">
+      <c r="L54" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M54" s="26"/>
+      <c r="M54" s="30"/>
     </row>
     <row r="55" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="27"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="31"/>
       <c r="F55" s="12" t="s">
         <v>47</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H55"/>
       <c r="I55" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="26"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="27"/>
+        <v>153</v>
+      </c>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="30"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="31"/>
       <c r="F56" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H56" s="12"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="26"/>
-    </row>
-    <row r="57" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="30"/>
+    </row>
+    <row r="57" spans="1:13" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>24</v>
       </c>
@@ -2826,7 +3014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>25</v>
       </c>
@@ -2861,23 +3049,23 @@
         <v>3</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="32">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="144" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="36">
         <v>26</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="40">
         <v>42912</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D59" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="31" t="s">
         <v>25</v>
       </c>
       <c r="F59" s="1" t="s">
@@ -2895,45 +3083,45 @@
       <c r="J59" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K59" s="26">
+      <c r="K59" s="30">
         <v>2</v>
       </c>
-      <c r="L59" s="27" t="s">
+      <c r="L59" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M59" s="26"/>
-    </row>
-    <row r="60" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="32"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="36"/>
-      <c r="E60" s="27"/>
+      <c r="M59" s="30"/>
+    </row>
+    <row r="60" spans="1:13" ht="19.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="36"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K60" s="26"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="26"/>
-    </row>
-    <row r="61" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="32">
+        <v>85</v>
+      </c>
+      <c r="K60" s="30"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="30"/>
+    </row>
+    <row r="61" spans="1:13" ht="55.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="36">
         <v>27</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="40">
         <v>42912</v>
       </c>
-      <c r="D61" s="36" t="s">
+      <c r="D61" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="31" t="s">
         <v>25</v>
       </c>
       <c r="F61" s="1" t="s">
@@ -2948,49 +3136,49 @@
       <c r="I61" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J61" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="K61" s="26">
+      <c r="J61" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61" s="30">
         <v>2</v>
       </c>
-      <c r="L61" s="27" t="s">
+      <c r="L61" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M61" s="26"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="32"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="27"/>
+      <c r="M61" s="30"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="36"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="31"/>
       <c r="F62" s="12" t="s">
         <v>41</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J62" s="34"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="26"/>
+        <v>85</v>
+      </c>
+      <c r="J62" s="39"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="30"/>
     </row>
     <row r="63" spans="1:13" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="32">
+      <c r="A63" s="36">
         <v>28</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="35">
+      <c r="C63" s="40">
         <v>42912</v>
       </c>
-      <c r="D63" s="36" t="s">
+      <c r="D63" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E63" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="1" t="s">
@@ -3002,37 +3190,37 @@
       <c r="I63" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J63" s="34" t="s">
+      <c r="J63" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="K63" s="26">
+      <c r="K63" s="30">
         <v>1</v>
       </c>
-      <c r="L63" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="M63" s="26"/>
-    </row>
-    <row r="64" spans="1:13" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="32"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="27"/>
+      <c r="L63" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="M63" s="30"/>
+    </row>
+    <row r="64" spans="1:13" ht="26.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="36"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="31"/>
       <c r="F64" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J64" s="34"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="26"/>
-    </row>
-    <row r="65" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="32"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="27"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="30"/>
+    </row>
+    <row r="65" spans="1:13" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="36"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="31"/>
       <c r="F65" s="1" t="s">
         <v>15</v>
       </c>
@@ -3042,25 +3230,25 @@
       <c r="I65" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J65" s="34"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="26"/>
-    </row>
-    <row r="66" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="32">
+      <c r="J65" s="39"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="30"/>
+    </row>
+    <row r="66" spans="1:13" ht="55.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="36">
         <v>29</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="35">
+      <c r="C66" s="40">
         <v>42912</v>
       </c>
-      <c r="D66" s="36" t="s">
+      <c r="D66" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="1" t="s">
@@ -3072,117 +3260,117 @@
       <c r="I66" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J66" s="34" t="s">
+      <c r="J66" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="K66" s="26">
+      <c r="K66" s="30">
         <v>2</v>
       </c>
-      <c r="L66" s="27" t="s">
+      <c r="L66" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M66" s="26" t="s">
+      <c r="M66" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="27"/>
+    <row r="67" spans="1:13" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="36"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="31"/>
       <c r="F67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J67" s="34"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="26"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="30"/>
     </row>
     <row r="68" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="32"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="27"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="31"/>
       <c r="F68" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J68" s="34"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="26"/>
-    </row>
-    <row r="69" spans="1:13" ht="82.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="32">
+      <c r="J68" s="39"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="30"/>
+    </row>
+    <row r="69" spans="1:13" ht="82.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="36">
         <v>30</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="40">
         <v>42912</v>
       </c>
-      <c r="D69" s="36" t="s">
+      <c r="D69" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="27" t="s">
+      <c r="E69" s="31" t="s">
         <v>25</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="27" t="s">
+      <c r="G69" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="27"/>
-      <c r="I69" s="26" t="s">
+      <c r="H69" s="31"/>
+      <c r="I69" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J69" s="34" t="s">
+      <c r="J69" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="K69" s="26">
+      <c r="K69" s="30">
         <v>3</v>
       </c>
-      <c r="L69" s="27" t="s">
+      <c r="L69" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M69" s="34" t="s">
+      <c r="M69" s="39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="32"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="27"/>
+    <row r="70" spans="1:13" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="36"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="31"/>
       <c r="F70" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="34"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="39"/>
     </row>
     <row r="71" spans="1:13" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="32">
+      <c r="A71" s="36">
         <v>31</v>
       </c>
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="40">
         <v>42912</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="E71" s="27" t="s">
+      <c r="E71" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
@@ -3194,39 +3382,39 @@
       <c r="I71" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J71" s="34" t="s">
+      <c r="J71" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="K71" s="26">
+      <c r="K71" s="30">
         <v>1</v>
       </c>
-      <c r="L71" s="27" t="s">
+      <c r="L71" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M71" s="34" t="s">
+      <c r="M71" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="27"/>
+    <row r="72" spans="1:13" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="36"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="31"/>
       <c r="F72" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J72" s="34"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="34"/>
-    </row>
-    <row r="73" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="32"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="27"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="39"/>
+    </row>
+    <row r="73" spans="1:13" ht="139.80000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="31"/>
       <c r="F73" s="1" t="s">
         <v>15</v>
       </c>
@@ -3236,85 +3424,85 @@
       <c r="I73" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J73" s="34"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="34"/>
-    </row>
-    <row r="74" spans="1:13" ht="248.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="32">
+      <c r="J73" s="39"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="39"/>
+    </row>
+    <row r="74" spans="1:13" ht="248.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="36">
         <v>32</v>
       </c>
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="35">
+      <c r="C74" s="40">
         <v>42912</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E74" s="27" t="s">
+      <c r="E74" s="31" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="27" t="s">
+      <c r="G74" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H74" s="27"/>
-      <c r="I74" s="26" t="s">
+      <c r="H74" s="31"/>
+      <c r="I74" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="J74" s="34" t="s">
+      <c r="J74" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K74" s="26">
+      <c r="K74" s="30">
         <v>1</v>
       </c>
-      <c r="L74" s="27" t="s">
+      <c r="L74" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M74" s="34" t="s">
+      <c r="M74" s="39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="27"/>
+    <row r="75" spans="1:13" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="36"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="31"/>
       <c r="F75" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="34"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="31"/>
+      <c r="M75" s="39"/>
     </row>
     <row r="76" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="27"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="31"/>
       <c r="F76" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="34"/>
-    </row>
-    <row r="77" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="39"/>
+    </row>
+    <row r="77" spans="1:13" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>33</v>
       </c>
@@ -3339,8 +3527,8 @@
       <c r="I77" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J77" s="3" t="s">
-        <v>63</v>
+      <c r="J77" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="K77" s="2">
         <v>2</v>
@@ -3349,7 +3537,7 @@
         <v>21</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="82.8" x14ac:dyDescent="0.25">
@@ -3363,7 +3551,7 @@
         <v>42914</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
@@ -3372,7 +3560,7 @@
         <v>47</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K78" s="2">
         <v>3</v>
@@ -3392,7 +3580,7 @@
         <v>42914</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -3401,10 +3589,10 @@
         <v>47</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K79" s="2">
         <v>2</v>
@@ -3424,7 +3612,7 @@
         <v>42914</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E80" t="s">
         <v>25</v>
@@ -3433,10 +3621,10 @@
         <v>47</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K80" s="2">
         <v>3</v>
@@ -3446,137 +3634,137 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="32">
+      <c r="A81" s="36">
         <v>37</v>
       </c>
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="31">
+      <c r="C81" s="35">
         <v>42914</v>
       </c>
-      <c r="D81" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E81" s="42" t="s">
+      <c r="D81" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J81" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="K81" s="26">
+        <v>91</v>
+      </c>
+      <c r="J81" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K81" s="30">
         <v>2</v>
       </c>
-      <c r="L81" s="27" t="s">
+      <c r="L81" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M81" s="26"/>
-    </row>
-    <row r="82" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="42"/>
+      <c r="M81" s="30"/>
+    </row>
+    <row r="82" spans="1:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="36"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="38"/>
       <c r="F82" s="18" t="s">
         <v>41</v>
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
       <c r="I82" s="18"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="26"/>
-    </row>
-    <row r="83" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="42"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="30"/>
+    </row>
+    <row r="83" spans="1:13" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="36"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="38"/>
       <c r="F83" s="18" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
       <c r="I83" s="18"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="26"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="30"/>
     </row>
     <row r="84" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="33">
+      <c r="A84" s="37">
         <v>38</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="31">
+      <c r="C84" s="35">
         <v>42914</v>
       </c>
-      <c r="D84" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E84" s="42" t="s">
+      <c r="D84" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J84" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="K84" s="26">
+      <c r="J84" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K84" s="30">
         <v>3</v>
       </c>
-      <c r="L84" s="27" t="s">
+      <c r="L84" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M84" s="26"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="42"/>
+      <c r="M84" s="30"/>
+    </row>
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="37"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="38"/>
       <c r="F85" s="18" t="s">
         <v>41</v>
       </c>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
       <c r="I85" s="19"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="26"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="42"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="30"/>
+    </row>
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="37"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="38"/>
       <c r="F86" s="18" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
       <c r="I86" s="19"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="26"/>
-    </row>
-    <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="30"/>
+    </row>
+    <row r="87" spans="1:13" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>39</v>
       </c>
@@ -3587,7 +3775,7 @@
         <v>42914</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
@@ -3599,10 +3787,10 @@
         <v>1</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="55.2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>40</v>
       </c>
@@ -3613,7 +3801,7 @@
         <v>42914</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -3628,7 +3816,7 @@
         <v>46</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K88" s="2">
         <v>3</v>
@@ -3637,18 +3825,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
         <v>41</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C89" s="4">
         <v>42914</v>
       </c>
       <c r="D89" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E89" t="s">
         <v>25</v>
@@ -3663,18 +3851,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="82.8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>42</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C90" s="23">
         <v>42916</v>
       </c>
       <c r="D90" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
@@ -3689,7 +3877,7 @@
         <v>27</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="K90" s="2">
         <v>2</v>
@@ -3698,18 +3886,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>43</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C91" s="4">
         <v>42916</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E91" t="s">
         <v>25</v>
@@ -3721,27 +3909,27 @@
         <v>26</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="K91" s="2">
         <v>2</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="96.6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="96.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>44</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C92" s="4">
         <v>42916</v>
       </c>
       <c r="D92" s="24" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -3756,7 +3944,7 @@
         <v>20</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K92" s="2">
         <v>3</v>
@@ -3765,18 +3953,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>45</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C93" s="4">
         <v>42916</v>
       </c>
       <c r="D93" s="24" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E93" t="s">
         <v>25</v>
@@ -3788,16 +3976,16 @@
         <v>26</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K93" s="2">
         <v>3</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="109.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="109.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>46</v>
       </c>
@@ -3808,7 +3996,7 @@
         <v>42919</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -3823,7 +4011,7 @@
         <v>27</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K94" s="2">
         <v>2</v>
@@ -3832,7 +4020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="97.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>47</v>
       </c>
@@ -3843,7 +4031,7 @@
         <v>42919</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E95" t="s">
         <v>25</v>
@@ -3858,16 +4046,16 @@
         <v>27</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K95" s="2">
         <v>2</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>48</v>
       </c>
@@ -3878,7 +4066,7 @@
         <v>42919</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -3893,7 +4081,7 @@
         <v>16</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K96" s="2">
         <v>3</v>
@@ -3902,8 +4090,120 @@
         <v>21</v>
       </c>
     </row>
+    <row r="97" spans="1:12" ht="41.4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10">
+        <v>49</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" s="4">
+        <v>42921</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" s="2">
+        <v>2</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A98" s="10">
+        <v>50</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="4">
+        <v>42923</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K98" s="2">
+        <v>3</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="27.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="10">
+        <v>51</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="4">
+        <v>42924</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K99" s="2">
+        <v>1</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="F1:F99">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="管理后台"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="248">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="K54:K56"/>
+    <mergeCell ref="J54:J56"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="B61:B62"/>
     <mergeCell ref="A61:A62"/>
@@ -3912,19 +4212,8 @@
     <mergeCell ref="E59:E60"/>
     <mergeCell ref="D59:D60"/>
     <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="D61:D62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="K54:K56"/>
     <mergeCell ref="M29:M31"/>
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="D39:D41"/>
@@ -3936,6 +4225,15 @@
     <mergeCell ref="M39:M41"/>
     <mergeCell ref="K29:K31"/>
     <mergeCell ref="L29:L31"/>
+    <mergeCell ref="J36:J38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A74:A76"/>
@@ -4041,10 +4339,6 @@
     <mergeCell ref="J49:J51"/>
     <mergeCell ref="E49:E51"/>
     <mergeCell ref="D49:D51"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="J54:J56"/>
     <mergeCell ref="M54:M56"/>
     <mergeCell ref="M49:M51"/>
     <mergeCell ref="M43:M45"/>
@@ -4065,12 +4359,10 @@
     <mergeCell ref="K46:K48"/>
     <mergeCell ref="L46:L48"/>
     <mergeCell ref="M46:M48"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="D54:D56"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="G32:G33"/>
@@ -4152,10 +4444,12 @@
     <mergeCell ref="M84:M86"/>
     <mergeCell ref="M61:M62"/>
     <mergeCell ref="M59:M60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="L61:L62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="iconSet" priority="5">
+    <cfRule type="iconSet" priority="7">
       <iconSet iconSet="5Quarters">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="20"/>
@@ -4164,22 +4458,28 @@
         <cfvo type="percent" val="80"/>
       </iconSet>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="产品设计中">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="产品设计中">
       <formula>NOT(ISERROR(SEARCH("产品设计中",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="暂缓">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="暂缓">
       <formula>NOT(ISERROR(SEARCH("暂缓",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="需求分析中">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="需求分析中">
       <formula>NOT(ISERROR(SEARCH("需求分析中",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="开发中">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="开发中">
       <formula>NOT(ISERROR(SEARCH("开发中",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="开发完成">
+      <formula>NOT(ISERROR(SEARCH("开发完成",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="开发完成">
+      <formula>NOT(ISERROR(SEARCH("开发完成",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L17 L20:L26 L29 L32:L39 L42:L43 L46:L54 L57:L59 L61 L87:L1048576 L63:L81 L84">
-      <formula1>"需求分析中,产品设计中,需求验证中,开发中,暂缓"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+      <formula1>"需求分析中,产品设计中,需求验证中,开发中,暂缓,开发完成"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K17 K20:K26 K29 K32:K39 K42:K43 K46:K54 K57:K59 K61 K63:K81 K84 K87:K1048576">
       <formula1>"1,2,3"</formula1>
@@ -4196,7 +4496,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B17 B20:B26 B29 B32:B39 B42:B43 B46:B54 B57:B59 B61 B63:B81 B84 B87:B1048576">
       <formula1>"蔡主任,产品,研发"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I84:I1048576 I7:I12 I29:I34 I1 I77:I78 I52:I54 I56:I59 I61 I63:I74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I63:I74 I7:I12 I29:I34 I1 I77:I78 I52:I54 I56:I59 I61 I84:I97 I99:I1048576">
       <formula1>"启动页,登录,忘记密码,修改初始密码,首页,校园排行榜,运动详情（走或跑）,运动详情（区域运动）,选择锻炼区域,个人中心,历史运动概况,锻炼成果,体测数据,体育成绩,审批,发起审批,审批详情,设置,修改密码,关于"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
@@ -4209,7 +4509,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{556205F3-2295-4E4B-B3E1-96C6300A6FFB}">
+          <x14:cfRule type="iconSet" priority="9" id="{556205F3-2295-4E4B-B3E1-96C6300A6FFB}">
             <x14:iconSet iconSet="3Stars">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4222,7 +4522,7 @@
               </x14:cfvo>
             </x14:iconSet>
           </x14:cfRule>
-          <x14:cfRule type="iconSet" priority="6" id="{2623D5D0-3FFE-44BF-A801-93CDAD8291DA}">
+          <x14:cfRule type="iconSet" priority="8" id="{2623D5D0-3FFE-44BF-A801-93CDAD8291DA}">
             <x14:iconSet iconSet="3Stars" reverse="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
